--- a/仕様/プレイヤー仕様.xlsx
+++ b/仕様/プレイヤー仕様.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13530" windowHeight="4365" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13530" windowHeight="4365" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー仕様" sheetId="1" r:id="rId1"/>
@@ -3547,7 +3547,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>○通常時</a:t>
+            <a:t>■通常時</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3863,7 +3863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
@@ -3895,7 +3895,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/仕様/プレイヤー仕様.xlsx
+++ b/仕様/プレイヤー仕様.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13530" windowHeight="4365" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13530" windowHeight="4365"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー仕様" sheetId="1" r:id="rId1"/>
@@ -646,65 +646,6 @@
             <a:t>○</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>140804</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>8283</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="325730" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2890630" y="3851413"/>
-          <a:ext cx="325730" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>○</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3838,7 +3779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -3894,7 +3835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
